--- a/src/main/resources/testData.xlsx
+++ b/src/main/resources/testData.xlsx
@@ -5,54 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Heal Life Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\com.HealLifeHospital_Team1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B063238-A456-4165-AC4E-505E639A7B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F00A964-E180-4C3F-BDE7-DB8DB4DE4A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1188" windowWidth="26328" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25400" yWindow="1340" windowWidth="20330" windowHeight="13930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="merchantLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="adminLogin" sheetId="2" r:id="rId2"/>
-    <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
+    <sheet name="loginbilgileri" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
-  <si>
-    <t>Agile.0924</t>
-  </si>
-  <si>
-    <t>hasan.admin@agileswiftcargo.com</t>
-  </si>
-  <si>
-    <t>gulpembe.admin@agileswiftcargo.com</t>
-  </si>
-  <si>
-    <t>bugra.admin@agileswiftcargo.com</t>
-  </si>
-  <si>
-    <t>ilgar.admin@agileswiftcargo.com</t>
-  </si>
-  <si>
-    <t>berranur.admin@agileswiftcargo.com</t>
-  </si>
-  <si>
-    <t>burhan.admin@agileswiftcargo.com</t>
-  </si>
-  <si>
-    <t>emrah.admin@agileswiftcargo.com</t>
-  </si>
-  <si>
-    <t>pouneh.admin@agileswiftcargo.com</t>
-  </si>
-  <si>
-    <t>gulcihan.admin@agileswiftcargo.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>1.column</t>
   </si>
@@ -334,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,20 +310,6 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1F4E78"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F4E78"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
     </font>
     <font>
       <b/>
@@ -468,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -507,32 +461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -550,72 +478,60 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -926,7 +842,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,338 +858,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>99</v>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>28</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>34</v>
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>40</v>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>46</v>
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>52</v>
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>58</v>
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>64</v>
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>70</v>
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>76</v>
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>82</v>
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>88</v>
+      <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="A13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>94</v>
+      <c r="B13" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1284,143 +1200,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/resources/testData.xlsx
+++ b/src/main/resources/testData.xlsx
@@ -3,24 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\com.HealLifeHospital_Team1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F00A964-E180-4C3F-BDE7-DB8DB4DE4A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA9E633-E603-4463-8C6F-96FC1F9CBCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25400" yWindow="1340" windowWidth="20330" windowHeight="13930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34160" yWindow="2190" windowWidth="20330" windowHeight="13930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginbilgileri" sheetId="1" r:id="rId1"/>
+    <sheet name="serenTestData" sheetId="2" r:id="rId2"/>
+    <sheet name="serenMedicineList" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
   <si>
     <t>1.column</t>
   </si>
@@ -296,12 +298,42 @@
   </si>
   <si>
     <t>12.row</t>
+  </si>
+  <si>
+    <t>hastaIPDNO</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Medicine Name</t>
+  </si>
+  <si>
+    <t>Dose1</t>
+  </si>
+  <si>
+    <t>Dose2</t>
+  </si>
+  <si>
+    <t>17.11.2024 (Sunday)</t>
+  </si>
+  <si>
+    <t>Alprovit</t>
+  </si>
+  <si>
+    <t>Time: 12:00 PM
+1 (ML)</t>
+  </si>
+  <si>
+    <t>Time: 08:00 AM
+1 (ML)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -534,6 +566,7 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -841,20 +874,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" customWidth="1"/>
-    <col min="5" max="5" width="52.6640625" customWidth="1"/>
-    <col min="6" max="6" width="54.21875" customWidth="1"/>
-    <col min="7" max="7" width="57.77734375" customWidth="1"/>
-    <col min="8" max="8" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.0"/>
+    <col min="2" max="2" customWidth="true" width="38.0"/>
+    <col min="3" max="3" customWidth="true" width="19.33203125"/>
+    <col min="4" max="4" customWidth="true" width="35.44140625"/>
+    <col min="5" max="5" customWidth="true" width="52.6640625"/>
+    <col min="6" max="6" customWidth="true" width="54.21875"/>
+    <col min="7" max="7" customWidth="true" width="57.77734375"/>
+    <col min="8" max="8" customWidth="true" width="40.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1200,4 +1233,163 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECFEE16-0870-4B77-9EF6-E2D91E4847F9}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.4296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.18359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.1171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.25390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>